--- a/Hero attributes list.xlsx
+++ b/Hero attributes list.xlsx
@@ -457,345 +457,6 @@
     <t>IMGLINK</t>
   </si>
   <si>
-    <t>abaddon_sb</t>
-  </si>
-  <si>
-    <t>axe_sb</t>
-  </si>
-  <si>
-    <t>beastmaster_sb</t>
-  </si>
-  <si>
-    <t>brewmaster_sb</t>
-  </si>
-  <si>
-    <t>bristleback_sb</t>
-  </si>
-  <si>
-    <t>alchemist_sb</t>
-  </si>
-  <si>
-    <t>earthshaker_sb</t>
-  </si>
-  <si>
-    <t>huskar_sb</t>
-  </si>
-  <si>
-    <t>kunkka_sb</t>
-  </si>
-  <si>
-    <t>lycan_sb</t>
-  </si>
-  <si>
-    <t>omniknight_sb</t>
-  </si>
-  <si>
-    <t>phoenix_sb</t>
-  </si>
-  <si>
-    <t>pudge_sb</t>
-  </si>
-  <si>
-    <t>slardar_sb</t>
-  </si>
-  <si>
-    <t>sven_sb</t>
-  </si>
-  <si>
-    <t>tidehunter_sb</t>
-  </si>
-  <si>
-    <t>tiny_sb</t>
-  </si>
-  <si>
-    <t>tusk_sb</t>
-  </si>
-  <si>
-    <t>undying_sb</t>
-  </si>
-  <si>
-    <t>bane_sb</t>
-  </si>
-  <si>
-    <t>batrider_sb</t>
-  </si>
-  <si>
-    <t>bloodseeker_sb</t>
-  </si>
-  <si>
-    <t>broodmother_sb</t>
-  </si>
-  <si>
-    <t>chen_sb</t>
-  </si>
-  <si>
-    <t>clinkz_sb</t>
-  </si>
-  <si>
-    <t>dazzle_sb</t>
-  </si>
-  <si>
-    <t>disruptor_sb</t>
-  </si>
-  <si>
-    <t>enchantress_sb</t>
-  </si>
-  <si>
-    <t>enigma_sb</t>
-  </si>
-  <si>
-    <t>gyrocopter_sb</t>
-  </si>
-  <si>
-    <t>invoker_sb</t>
-  </si>
-  <si>
-    <t>jakiro_sb</t>
-  </si>
-  <si>
-    <t>juggernaut_sb</t>
-  </si>
-  <si>
-    <t>leshrac_sb</t>
-  </si>
-  <si>
-    <t>lich_sb</t>
-  </si>
-  <si>
-    <t>lina_sb</t>
-  </si>
-  <si>
-    <t>lion_sb</t>
-  </si>
-  <si>
-    <t>luna_sb</t>
-  </si>
-  <si>
-    <t>medusa_sb</t>
-  </si>
-  <si>
-    <t>meepo_sb</t>
-  </si>
-  <si>
-    <t>mirana_sb</t>
-  </si>
-  <si>
-    <t>morphling_sb</t>
-  </si>
-  <si>
-    <t>oracle_sb</t>
-  </si>
-  <si>
-    <t>puck_sb</t>
-  </si>
-  <si>
-    <t>pugna_sb</t>
-  </si>
-  <si>
-    <t>razor_sb</t>
-  </si>
-  <si>
-    <t>riki_sb</t>
-  </si>
-  <si>
-    <t>rubick_sb</t>
-  </si>
-  <si>
-    <t>silencer_sb</t>
-  </si>
-  <si>
-    <t>slark_sb</t>
-  </si>
-  <si>
-    <t>sniper_sb</t>
-  </si>
-  <si>
-    <t>spectre_sb</t>
-  </si>
-  <si>
-    <t>techies_sb</t>
-  </si>
-  <si>
-    <t>terrorblade_sb</t>
-  </si>
-  <si>
-    <t>tinker_sb</t>
-  </si>
-  <si>
-    <t>ursa_sb</t>
-  </si>
-  <si>
-    <t>venomancer_sb</t>
-  </si>
-  <si>
-    <t>viper_sb</t>
-  </si>
-  <si>
-    <t>visage_sb</t>
-  </si>
-  <si>
-    <t>warlock_sb</t>
-  </si>
-  <si>
-    <t>weaver_sb</t>
-  </si>
-  <si>
-    <t>abyssal_underlord_sb</t>
-  </si>
-  <si>
-    <t>antimage_sb</t>
-  </si>
-  <si>
-    <t>arc_warden_sb</t>
-  </si>
-  <si>
-    <t>ancient_apparition_sb</t>
-  </si>
-  <si>
-    <t>bounty_hunter_sb</t>
-  </si>
-  <si>
-    <t>chaos_knight_sb</t>
-  </si>
-  <si>
-    <t>crystal_maiden_sb</t>
-  </si>
-  <si>
-    <t>dark_seer_sb</t>
-  </si>
-  <si>
-    <t>death_prophet_sb</t>
-  </si>
-  <si>
-    <t>dragon_knight_sb</t>
-  </si>
-  <si>
-    <t>drow_ranger_sb</t>
-  </si>
-  <si>
-    <t>earth_spirit_sb</t>
-  </si>
-  <si>
-    <t>elder_titan_sb</t>
-  </si>
-  <si>
-    <t>ember_spirit_sb</t>
-  </si>
-  <si>
-    <t>faceless_void_sb</t>
-  </si>
-  <si>
-    <t>keeper_of_the_light_sb</t>
-  </si>
-  <si>
-    <t>legion_commander_sb</t>
-  </si>
-  <si>
-    <t>lone_druid_sb</t>
-  </si>
-  <si>
-    <t>monkey_king_sb</t>
-  </si>
-  <si>
-    <t>naga_siren_sb</t>
-  </si>
-  <si>
-    <t>night_stalker_sb</t>
-  </si>
-  <si>
-    <t>nyx_assassin_sb</t>
-  </si>
-  <si>
-    <t>ogre_magi_sb</t>
-  </si>
-  <si>
-    <t>phantom_assassin_sb</t>
-  </si>
-  <si>
-    <t>phantom_lancer_sb</t>
-  </si>
-  <si>
-    <t>sand_king_sb</t>
-  </si>
-  <si>
-    <t>shadow_demon_sb</t>
-  </si>
-  <si>
-    <t>shadow_shaman_sb</t>
-  </si>
-  <si>
-    <t>skywrath_mage_sb</t>
-  </si>
-  <si>
-    <t>spirit_breaker_sb</t>
-  </si>
-  <si>
-    <t>storm_spirit_sb</t>
-  </si>
-  <si>
-    <t>templar_assassin_sb</t>
-  </si>
-  <si>
-    <t>troll_warlord_sb</t>
-  </si>
-  <si>
-    <t>winter_wyvern_sb</t>
-  </si>
-  <si>
-    <t>witch_doctor_sb</t>
-  </si>
-  <si>
-    <t>centaur_sb</t>
-  </si>
-  <si>
-    <t>magnataur_sb</t>
-  </si>
-  <si>
-    <t>necrolyte_sb</t>
-  </si>
-  <si>
-    <t>nevermore_sb</t>
-  </si>
-  <si>
-    <t>obsidian_destroyer_sb</t>
-  </si>
-  <si>
-    <t>queenofpain_sb</t>
-  </si>
-  <si>
-    <t>rattletrap_sb</t>
-  </si>
-  <si>
-    <t>shredder_sb</t>
-  </si>
-  <si>
-    <t>skeleton_king_sb</t>
-  </si>
-  <si>
-    <t>treant_sb</t>
-  </si>
-  <si>
-    <t>vengefulspirit_sb</t>
-  </si>
-  <si>
-    <t>windrunner_sb</t>
-  </si>
-  <si>
-    <t>wisp_sb</t>
-  </si>
-  <si>
-    <t>zuus_sb</t>
-  </si>
-  <si>
-    <t>furion_sb</t>
-  </si>
-  <si>
-    <t>doom_bringer_sb</t>
-  </si>
-  <si>
-    <t>life_stealer_sb</t>
-  </si>
-  <si>
     <t>RANGE</t>
   </si>
   <si>
@@ -803,6 +464,345 @@
   </si>
   <si>
     <t>Melee</t>
+  </si>
+  <si>
+    <t>abaddon</t>
+  </si>
+  <si>
+    <t>alchemist</t>
+  </si>
+  <si>
+    <t>ancient_apparition</t>
+  </si>
+  <si>
+    <t>antimage</t>
+  </si>
+  <si>
+    <t>arc_warden</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>bane</t>
+  </si>
+  <si>
+    <t>batrider</t>
+  </si>
+  <si>
+    <t>beastmaster</t>
+  </si>
+  <si>
+    <t>bloodseeker</t>
+  </si>
+  <si>
+    <t>bounty_hunter</t>
+  </si>
+  <si>
+    <t>brewmaster</t>
+  </si>
+  <si>
+    <t>bristleback</t>
+  </si>
+  <si>
+    <t>broodmother</t>
+  </si>
+  <si>
+    <t>centaur</t>
+  </si>
+  <si>
+    <t>chaos_knight</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>clinkz</t>
+  </si>
+  <si>
+    <t>rattletrap</t>
+  </si>
+  <si>
+    <t>crystal_maiden</t>
+  </si>
+  <si>
+    <t>dark_seer</t>
+  </si>
+  <si>
+    <t>dazzle</t>
+  </si>
+  <si>
+    <t>death_prophet</t>
+  </si>
+  <si>
+    <t>disruptor</t>
+  </si>
+  <si>
+    <t>doom_bringer</t>
+  </si>
+  <si>
+    <t>dragon_knight</t>
+  </si>
+  <si>
+    <t>drow_ranger</t>
+  </si>
+  <si>
+    <t>earth_spirit</t>
+  </si>
+  <si>
+    <t>earthshaker</t>
+  </si>
+  <si>
+    <t>elder_titan</t>
+  </si>
+  <si>
+    <t>ember_spirit</t>
+  </si>
+  <si>
+    <t>enchantress</t>
+  </si>
+  <si>
+    <t>enigma</t>
+  </si>
+  <si>
+    <t>faceless_void</t>
+  </si>
+  <si>
+    <t>gyrocopter</t>
+  </si>
+  <si>
+    <t>huskar</t>
+  </si>
+  <si>
+    <t>invoker</t>
+  </si>
+  <si>
+    <t>wisp</t>
+  </si>
+  <si>
+    <t>jakiro</t>
+  </si>
+  <si>
+    <t>juggernaut</t>
+  </si>
+  <si>
+    <t>keeper_of_the_light</t>
+  </si>
+  <si>
+    <t>kunkka</t>
+  </si>
+  <si>
+    <t>legion_commander</t>
+  </si>
+  <si>
+    <t>leshrac</t>
+  </si>
+  <si>
+    <t>lich</t>
+  </si>
+  <si>
+    <t>life_stealer</t>
+  </si>
+  <si>
+    <t>lina</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>lone_druid</t>
+  </si>
+  <si>
+    <t>luna</t>
+  </si>
+  <si>
+    <t>lycan</t>
+  </si>
+  <si>
+    <t>magnataur</t>
+  </si>
+  <si>
+    <t>medusa</t>
+  </si>
+  <si>
+    <t>meepo</t>
+  </si>
+  <si>
+    <t>mirana</t>
+  </si>
+  <si>
+    <t>monkey_king</t>
+  </si>
+  <si>
+    <t>morphling</t>
+  </si>
+  <si>
+    <t>naga_siren</t>
+  </si>
+  <si>
+    <t>furion</t>
+  </si>
+  <si>
+    <t>necrolyte</t>
+  </si>
+  <si>
+    <t>night_stalker</t>
+  </si>
+  <si>
+    <t>nyx_assassin</t>
+  </si>
+  <si>
+    <t>ogre_magi</t>
+  </si>
+  <si>
+    <t>omniknight</t>
+  </si>
+  <si>
+    <t>oracle</t>
+  </si>
+  <si>
+    <t>obsidian_destroyer</t>
+  </si>
+  <si>
+    <t>phantom_assassin</t>
+  </si>
+  <si>
+    <t>phantom_lancer</t>
+  </si>
+  <si>
+    <t>phoenix</t>
+  </si>
+  <si>
+    <t>puck</t>
+  </si>
+  <si>
+    <t>pudge</t>
+  </si>
+  <si>
+    <t>pugna</t>
+  </si>
+  <si>
+    <t>queenofpain</t>
+  </si>
+  <si>
+    <t>razor</t>
+  </si>
+  <si>
+    <t>riki</t>
+  </si>
+  <si>
+    <t>rubick</t>
+  </si>
+  <si>
+    <t>sand_king</t>
+  </si>
+  <si>
+    <t>shadow_demon</t>
+  </si>
+  <si>
+    <t>nevermore</t>
+  </si>
+  <si>
+    <t>shadow_shaman</t>
+  </si>
+  <si>
+    <t>silencer</t>
+  </si>
+  <si>
+    <t>skywrath_mage</t>
+  </si>
+  <si>
+    <t>slardar</t>
+  </si>
+  <si>
+    <t>slark</t>
+  </si>
+  <si>
+    <t>sniper</t>
+  </si>
+  <si>
+    <t>spectre</t>
+  </si>
+  <si>
+    <t>spirit_breaker</t>
+  </si>
+  <si>
+    <t>storm_spirit</t>
+  </si>
+  <si>
+    <t>sven</t>
+  </si>
+  <si>
+    <t>techies</t>
+  </si>
+  <si>
+    <t>templar_assassin</t>
+  </si>
+  <si>
+    <t>terrorblade</t>
+  </si>
+  <si>
+    <t>tidehunter</t>
+  </si>
+  <si>
+    <t>shredder</t>
+  </si>
+  <si>
+    <t>tinker</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>treant</t>
+  </si>
+  <si>
+    <t>troll_warlord</t>
+  </si>
+  <si>
+    <t>tusk</t>
+  </si>
+  <si>
+    <t>abyssal_underlord</t>
+  </si>
+  <si>
+    <t>undying</t>
+  </si>
+  <si>
+    <t>ursa</t>
+  </si>
+  <si>
+    <t>vengefulspirit</t>
+  </si>
+  <si>
+    <t>venomancer</t>
+  </si>
+  <si>
+    <t>viper</t>
+  </si>
+  <si>
+    <t>visage</t>
+  </si>
+  <si>
+    <t>warlock</t>
+  </si>
+  <si>
+    <t>weaver</t>
+  </si>
+  <si>
+    <t>windrunner</t>
+  </si>
+  <si>
+    <t>winter_wyvern</t>
+  </si>
+  <si>
+    <t>witch_doctor</t>
+  </si>
+  <si>
+    <t>skeleton_king</t>
+  </si>
+  <si>
+    <t>zuus</t>
   </si>
 </sst>
 </file>
@@ -1410,14 +1410,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:AC114"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z57" sqref="Z57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1506,7 +1507,7 @@
         <v>142</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>256</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1590,10 +1591,10 @@
       </c>
       <c r="AA2" s="7"/>
       <c r="AB2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AC2" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1676,10 +1677,10 @@
         <v>2</v>
       </c>
       <c r="AB3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC3" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1762,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="AC4" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1848,10 +1849,10 @@
         <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="AC5" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1934,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="AB6" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="AC6" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2020,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="AB7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AC7" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2106,10 +2107,10 @@
         <v>4</v>
       </c>
       <c r="AB8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AC8" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2192,10 +2193,10 @@
         <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AC9" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2278,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="AB10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC10" t="s">
         <v>145</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2364,10 +2365,10 @@
         <v>2</v>
       </c>
       <c r="AB11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AC11" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2450,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="AB12" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="AC12" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2536,10 +2537,10 @@
         <v>2</v>
       </c>
       <c r="AB13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2622,10 +2623,10 @@
         <v>2</v>
       </c>
       <c r="AB14" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AC14" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2708,10 +2709,10 @@
         <v>8</v>
       </c>
       <c r="AB15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AC15" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2794,10 +2795,10 @@
         <v>4</v>
       </c>
       <c r="AB16" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="AC16" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2880,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AB17" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="AC17" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2966,10 +2967,10 @@
         <v>2</v>
       </c>
       <c r="AB18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AC18" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3052,10 +3053,10 @@
         <v>2</v>
       </c>
       <c r="AB19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AC19" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3138,10 +3139,10 @@
         <v>2</v>
       </c>
       <c r="AB20" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="AC20" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3224,10 +3225,10 @@
         <v>2</v>
       </c>
       <c r="AB21" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="AC21" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3310,10 +3311,10 @@
         <v>2</v>
       </c>
       <c r="AB22" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="AC22" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3396,10 +3397,10 @@
         <v>2</v>
       </c>
       <c r="AB23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3482,10 +3483,10 @@
         <v>2</v>
       </c>
       <c r="AB24" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="AC24" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3571,7 +3572,7 @@
         <v>169</v>
       </c>
       <c r="AC25" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3654,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="AB26" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC26" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3740,10 +3741,10 @@
         <v>2</v>
       </c>
       <c r="AB27" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="AC27" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3826,10 +3827,10 @@
         <v>2</v>
       </c>
       <c r="AB28" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="AC28" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3912,10 +3913,10 @@
         <v>2</v>
       </c>
       <c r="AB29" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="AC29" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3998,10 +3999,10 @@
         <v>2</v>
       </c>
       <c r="AB30" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="AC30" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4084,10 +4085,10 @@
         <v>2</v>
       </c>
       <c r="AB31" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="AC31" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4170,10 +4171,10 @@
         <v>2</v>
       </c>
       <c r="AB32" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="AC32" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4256,10 +4257,10 @@
         <v>4</v>
       </c>
       <c r="AB33" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AC33" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4342,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AC34" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4428,10 +4429,10 @@
         <v>2</v>
       </c>
       <c r="AB35" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="AC35" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4514,10 +4515,10 @@
         <v>2</v>
       </c>
       <c r="AB36" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AC36" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4600,10 +4601,10 @@
         <v>2</v>
       </c>
       <c r="AB37" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="AC37" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4686,10 +4687,10 @@
         <v>2</v>
       </c>
       <c r="AB38" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AC38" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4772,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="AB39" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="AC39" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4858,10 +4859,10 @@
         <v>2</v>
       </c>
       <c r="AB40" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="AC40" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4944,10 +4945,10 @@
         <v>2</v>
       </c>
       <c r="AB41" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AC41" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5030,10 +5031,10 @@
         <v>2</v>
       </c>
       <c r="AB42" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="AC42" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5116,10 +5117,10 @@
         <v>2</v>
       </c>
       <c r="AB43" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="AC43" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5202,10 +5203,10 @@
         <v>2</v>
       </c>
       <c r="AB44" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="AC44" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5288,10 +5289,10 @@
         <v>4</v>
       </c>
       <c r="AB45" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AC45" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5374,10 +5375,10 @@
         <v>2</v>
       </c>
       <c r="AB46" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AC46" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5460,10 +5461,10 @@
         <v>2</v>
       </c>
       <c r="AB47" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="AC47" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5546,10 +5547,10 @@
         <v>2</v>
       </c>
       <c r="AB48" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AC48" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5632,10 +5633,10 @@
         <v>2</v>
       </c>
       <c r="AB49" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AC49" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5718,10 +5719,10 @@
         <v>2</v>
       </c>
       <c r="AB50" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="AC50" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5804,10 +5805,10 @@
         <v>2</v>
       </c>
       <c r="AB51" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AC51" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5890,10 +5891,10 @@
         <v>2</v>
       </c>
       <c r="AB52" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="AC52" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5976,10 +5977,10 @@
         <v>4</v>
       </c>
       <c r="AB53" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="AC53" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6062,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="AB54" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="AC54" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6148,10 +6149,10 @@
         <v>2</v>
       </c>
       <c r="AB55" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="AC55" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6234,10 +6235,10 @@
         <v>2</v>
       </c>
       <c r="AB56" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="AC56" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6320,10 +6321,10 @@
         <v>2</v>
       </c>
       <c r="AB57" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="AC57" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6406,10 +6407,10 @@
         <v>0</v>
       </c>
       <c r="AB58" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="AC58" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6492,10 +6493,10 @@
         <v>0</v>
       </c>
       <c r="AB59" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="AC59" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -6578,10 +6579,10 @@
         <v>2</v>
       </c>
       <c r="AB60" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="AC60" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6664,10 +6665,10 @@
         <v>2</v>
       </c>
       <c r="AB61" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="AC61" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6750,10 +6751,10 @@
         <v>2</v>
       </c>
       <c r="AB62" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AC62" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6836,10 +6837,10 @@
         <v>6</v>
       </c>
       <c r="AB63" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AC63" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6922,10 +6923,10 @@
         <v>2</v>
       </c>
       <c r="AB64" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AC64" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7008,10 +7009,10 @@
         <v>2</v>
       </c>
       <c r="AB65" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="AC65" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7094,10 +7095,10 @@
         <v>2</v>
       </c>
       <c r="AB66" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="AC66" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7180,10 +7181,10 @@
         <v>4</v>
       </c>
       <c r="AB67" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AC67" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7266,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="AB68" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AC68" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7352,10 +7353,10 @@
         <v>2</v>
       </c>
       <c r="AB69" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="AC69" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7438,10 +7439,10 @@
         <v>2</v>
       </c>
       <c r="AB70" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="AC70" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7524,10 +7525,10 @@
         <v>2</v>
       </c>
       <c r="AB71" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="AC71" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7610,10 +7611,10 @@
         <v>2</v>
       </c>
       <c r="AB72" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="AC72" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7696,10 +7697,10 @@
         <v>2</v>
       </c>
       <c r="AB73" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AC73" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7782,10 +7783,10 @@
         <v>2</v>
       </c>
       <c r="AB74" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AC74" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7868,10 +7869,10 @@
         <v>0</v>
       </c>
       <c r="AB75" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AC75" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7954,10 +7955,10 @@
         <v>2</v>
       </c>
       <c r="AB76" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AC76" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8040,10 +8041,10 @@
         <v>2</v>
       </c>
       <c r="AB77" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AC77" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8126,10 +8127,10 @@
         <v>6</v>
       </c>
       <c r="AB78" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AC78" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8212,10 +8213,10 @@
         <v>2</v>
       </c>
       <c r="AB79" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AC79" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8298,10 +8299,10 @@
         <v>0</v>
       </c>
       <c r="AB80" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="AC80" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8384,10 +8385,10 @@
         <v>2</v>
       </c>
       <c r="AB81" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AC81" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8470,10 +8471,10 @@
         <v>2</v>
       </c>
       <c r="AB82" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="AC82" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8556,10 +8557,10 @@
         <v>2</v>
       </c>
       <c r="AB83" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AC83" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8642,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="AB84" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="AC84" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8728,10 +8729,10 @@
         <v>2</v>
       </c>
       <c r="AB85" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="AC85" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8814,10 +8815,10 @@
         <v>2</v>
       </c>
       <c r="AB86" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="AC86" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8900,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="AB87" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="AC87" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8986,10 +8987,10 @@
         <v>2</v>
       </c>
       <c r="AB88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC88" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9072,10 +9073,10 @@
         <v>2</v>
       </c>
       <c r="AB89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AC89" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9158,10 +9159,10 @@
         <v>2</v>
       </c>
       <c r="AB90" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="AC90" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9244,10 +9245,10 @@
         <v>6</v>
       </c>
       <c r="AB91" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="AC91" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -9330,10 +9331,10 @@
         <v>2</v>
       </c>
       <c r="AB92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC92" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9416,10 +9417,10 @@
         <v>2</v>
       </c>
       <c r="AB93" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="AC93" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9502,10 +9503,10 @@
         <v>2</v>
       </c>
       <c r="AB94" t="s">
-        <v>158</v>
+        <v>238</v>
       </c>
       <c r="AC94" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9588,10 +9589,10 @@
         <v>2</v>
       </c>
       <c r="AB95" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AC95" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9674,10 +9675,10 @@
         <v>2</v>
       </c>
       <c r="AB96" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="AC96" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9760,10 +9761,10 @@
         <v>2</v>
       </c>
       <c r="AB97" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="AC97" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -9846,10 +9847,10 @@
         <v>2</v>
       </c>
       <c r="AB98" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AC98" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9932,10 +9933,10 @@
         <v>2</v>
       </c>
       <c r="AB99" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AC99" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10018,10 +10019,10 @@
         <v>2</v>
       </c>
       <c r="AB100" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="AC100" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10104,10 +10105,10 @@
         <v>4</v>
       </c>
       <c r="AB101" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="AC101" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10190,10 +10191,10 @@
         <v>2</v>
       </c>
       <c r="AB102" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="AC102" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10276,10 +10277,10 @@
         <v>2</v>
       </c>
       <c r="AB103" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="AC103" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10362,10 +10363,10 @@
         <v>2</v>
       </c>
       <c r="AB104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC104" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10448,10 +10449,10 @@
         <v>0</v>
       </c>
       <c r="AB105" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="AC105" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10534,10 +10535,10 @@
         <v>0</v>
       </c>
       <c r="AB106" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC106" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10620,10 +10621,10 @@
         <v>2</v>
       </c>
       <c r="AB107" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AC107" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10706,10 +10707,10 @@
         <v>2</v>
       </c>
       <c r="AB108" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="AC108" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10792,10 +10793,10 @@
         <v>4</v>
       </c>
       <c r="AB109" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="AC109" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10878,10 +10879,10 @@
         <v>2</v>
       </c>
       <c r="AB110" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC110" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10964,10 +10965,10 @@
         <v>2</v>
       </c>
       <c r="AB111" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="AC111" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11050,10 +11051,10 @@
         <v>2</v>
       </c>
       <c r="AB112" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AC112" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11136,10 +11137,10 @@
         <v>2</v>
       </c>
       <c r="AB113" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AC113" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11222,10 +11223,10 @@
         <v>2</v>
       </c>
       <c r="AB114" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AC114" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
